--- a/Scenarios/common/masterinput_v1.xlsx
+++ b/Scenarios/common/masterinput_v1.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
     <sheet name="Crops" sheetId="2" r:id="rId2"/>
-    <sheet name="Crops_JB6" sheetId="7" r:id="rId3"/>
-    <sheet name="Manure" sheetId="6" r:id="rId4"/>
-    <sheet name="Gødning, Konventionel" sheetId="3" r:id="rId5"/>
-    <sheet name="Gødning, Øko" sheetId="4" r:id="rId6"/>
-    <sheet name="soil_climate_more" sheetId="5" r:id="rId7"/>
+    <sheet name="afgkoder" sheetId="8" r:id="rId3"/>
+    <sheet name="Nnorm" sheetId="9" r:id="rId4"/>
+    <sheet name="Crops_JB6" sheetId="7" r:id="rId5"/>
+    <sheet name="Manure" sheetId="6" r:id="rId6"/>
+    <sheet name="Manure1" sheetId="10" r:id="rId7"/>
+    <sheet name="Gødning, Konventionel" sheetId="3" r:id="rId8"/>
+    <sheet name="Gødning, Øko" sheetId="4" r:id="rId9"/>
+    <sheet name="soil_climate_more" sheetId="5" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$L$29</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -287,9 +293,6 @@
     <t>Manuretype</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bedding</t>
-  </si>
-  <si>
     <t>SB, Ryegrass, Wclover</t>
   </si>
   <si>
@@ -422,21 +425,6 @@
     <t xml:space="preserve">Vårbyg </t>
   </si>
   <si>
-    <t>Vårbyg KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1 </t>
-  </si>
-  <si>
     <t>MaxE</t>
   </si>
   <si>
@@ -465,6 +453,78 @@
   </si>
   <si>
     <t>GræsV1</t>
+  </si>
+  <si>
+    <t>harvestHow</t>
+  </si>
+  <si>
+    <t>GræsVstart</t>
+  </si>
+  <si>
+    <t>Cattlemanure</t>
+  </si>
+  <si>
+    <t>K4DS</t>
+  </si>
+  <si>
+    <t>O2DS</t>
+  </si>
+  <si>
+    <t>Nnorm</t>
+  </si>
+  <si>
+    <t>forfrugt</t>
+  </si>
+  <si>
+    <t>norm-forfrugt</t>
+  </si>
+  <si>
+    <t>agkode</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>170 kgN</t>
+  </si>
+  <si>
+    <t>230 kgN</t>
+  </si>
+  <si>
+    <t>85 kgN</t>
+  </si>
+  <si>
+    <t>0 kgN</t>
+  </si>
+  <si>
+    <t>Nnorm1</t>
+  </si>
+  <si>
+    <t>Norm2</t>
+  </si>
+  <si>
+    <t>afgkode2</t>
+  </si>
+  <si>
+    <t>afgkode1</t>
+  </si>
+  <si>
+    <t>K5DS</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
 </sst>
 </file>
@@ -536,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,8 +657,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -884,11 +950,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1140,6 +1217,51 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,28 +1545,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1452,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>106</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>73</v>
@@ -1464,52 +1586,55 @@
         <v>74</v>
       </c>
       <c r="F1" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="K1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="S1" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="U1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="V1" s="61" t="s">
         <v>126</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1526,55 +1651,58 @@
         <v>41</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="L2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="M2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="N2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>138</v>
-      </c>
       <c r="Q2" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="T2" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>130</v>
+      <c r="V2" s="63" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1588,7 +1716,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>9</v>
@@ -1602,43 +1730,46 @@
       <c r="H3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="L3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="N3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="P3" s="39" t="s">
         <v>2</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>43</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="V3" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1650,7 +1781,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>9</v>
@@ -1658,8 +1789,8 @@
       <c r="E4" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>9</v>
+      <c r="F4" s="72" t="s">
+        <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>9</v>
@@ -1667,43 +1798,46 @@
       <c r="H4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="N4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="O4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="34" t="s">
         <v>58</v>
       </c>
       <c r="Q4" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="V4" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1723,52 +1857,55 @@
       <c r="E5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>9</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="45" t="s">
+      <c r="L5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="N5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="P5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="R5" s="64" t="s">
+      <c r="Q5" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="V5" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1791,46 +1928,49 @@
       <c r="F6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="I6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="J6" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="58" t="s">
+      <c r="L6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="O6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="P6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="Q6" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="57" t="s">
+      <c r="T6" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="V6" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1853,45 +1993,48 @@
       <c r="F7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="I7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="O7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>7</v>
       </c>
       <c r="Q7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="R7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="66" t="s">
+      <c r="V7" s="66" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1899,60 +2042,63 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>71</v>
+      <c r="B8" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>158</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>131</v>
+        <v>162</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>161</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>134</v>
+        <v>161</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="N8" s="70" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="O8" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="70"/>
+        <v>159</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>159</v>
+      </c>
       <c r="Q8" s="70"/>
-      <c r="R8" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" s="70"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1963,47 +2109,50 @@
       <c r="D9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>79</v>
+      <c r="F9" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>78</v>
       </c>
       <c r="K9" s="70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="M9" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="70" t="s">
+      <c r="O9" s="70" t="s">
         <v>77</v>
       </c>
       <c r="Q9" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="70"/>
-      <c r="S9" s="73" t="s">
+      <c r="R9" s="70" t="s">
         <v>77</v>
       </c>
+      <c r="S9" s="70"/>
       <c r="T9" s="73" t="s">
         <v>77</v>
       </c>
       <c r="U9" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="73" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2021,7 +2170,7 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -2030,38 +2179,41 @@
       <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="70" t="s">
-        <v>13</v>
-      </c>
+      <c r="K10" s="10"/>
       <c r="L10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70" t="s">
+      <c r="M10" s="70" t="s">
         <v>13</v>
       </c>
+      <c r="N10" s="70"/>
       <c r="O10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="70" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="T10" t="s">
+      <c r="S10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="59"/>
+      <c r="U10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>13</v>
@@ -2069,27 +2221,28 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="K11" s="70" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="70"/>
       <c r="L11" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="N11" s="70"/>
       <c r="O11" s="70"/>
       <c r="P11" s="70"/>
       <c r="Q11" s="70"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59" t="s">
+      <c r="R11" s="70"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="T11" s="59"/>
       <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>13</v>
@@ -2097,49 +2250,126 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="T12" s="59"/>
+      <c r="F12" s="11"/>
       <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="68"/>
-      <c r="F13" s="59"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
-      <c r="R13" s="60"/>
+      <c r="K13" s="59"/>
       <c r="S13" s="60"/>
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R14" s="67"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,12 +2378,13 @@
     <col min="2" max="4" width="18.28515625" style="32"/>
     <col min="5" max="5" width="21.7109375" style="32" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="32"/>
-    <col min="7" max="8" width="18.28515625" style="7"/>
-    <col min="9" max="9" width="18.28515625" style="32"/>
-    <col min="10" max="16384" width="18.28515625" style="7"/>
+    <col min="7" max="9" width="18.28515625" style="7"/>
+    <col min="10" max="11" width="18.28515625" style="91"/>
+    <col min="12" max="12" width="18.28515625" style="32"/>
+    <col min="13" max="16384" width="18.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>37</v>
       </c>
@@ -2161,28 +2392,37 @@
         <v>38</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
@@ -2201,11 +2441,15 @@
         <v>44</v>
       </c>
       <c r="H2" s="79"/>
-      <c r="I2" s="32">
+      <c r="I2" s="87"/>
+      <c r="J2" s="91">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
@@ -2224,8 +2468,12 @@
         <v>47</v>
       </c>
       <c r="H3" s="79"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="87"/>
+      <c r="J3" s="91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>60</v>
       </c>
@@ -2248,11 +2496,15 @@
       <c r="H4" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="87"/>
+      <c r="J4" s="91">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
@@ -2271,13 +2523,17 @@
         <v>48</v>
       </c>
       <c r="H5" s="79"/>
-      <c r="I5" s="32">
+      <c r="I5" s="87"/>
+      <c r="J5" s="91">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B6" s="85">
         <v>43727</v>
@@ -2292,8 +2548,12 @@
       <c r="F6" s="77"/>
       <c r="G6" s="79"/>
       <c r="H6" s="79"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="87"/>
+      <c r="J6" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
         <v>3</v>
       </c>
@@ -2312,11 +2572,15 @@
         <v>49</v>
       </c>
       <c r="H7" s="79"/>
-      <c r="I7" s="32">
+      <c r="I7" s="87"/>
+      <c r="J7" s="91">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>1</v>
       </c>
@@ -2335,13 +2599,17 @@
         <v>50</v>
       </c>
       <c r="H8" s="79"/>
-      <c r="I8" s="32">
+      <c r="I8" s="87"/>
+      <c r="J8" s="91">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="77">
         <v>43556</v>
@@ -2362,15 +2630,22 @@
         <v>50</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="91">
+        <v>701</v>
+      </c>
+      <c r="K9" s="91">
+        <v>263</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="77">
         <v>43556</v>
@@ -2391,11 +2666,18 @@
       <c r="H10" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="87"/>
+      <c r="J10" s="91">
+        <v>1</v>
+      </c>
+      <c r="K10" s="91">
+        <v>968</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>58</v>
       </c>
@@ -2418,11 +2700,18 @@
       <c r="H11" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="87"/>
+      <c r="J11" s="91">
+        <v>1</v>
+      </c>
+      <c r="K11" s="91">
+        <v>968</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>46</v>
       </c>
@@ -2438,20 +2727,29 @@
       <c r="E12" s="77">
         <v>43678</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="77">
+        <v>43723</v>
+      </c>
       <c r="G12" s="79" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="J12" s="91">
+        <v>1</v>
+      </c>
+      <c r="K12" s="91">
+        <v>963</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="77">
         <v>43556</v>
@@ -2465,16 +2763,21 @@
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="79"/>
-      <c r="I13" s="7">
+      <c r="I13" s="87"/>
+      <c r="J13" s="87">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="87"/>
+      <c r="L13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="77">
         <v>43556</v>
@@ -2492,18 +2795,25 @@
         <v>43723</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="91">
+        <v>2</v>
+      </c>
+      <c r="K14" s="91">
+        <v>963</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="77">
         <v>43556</v>
@@ -2524,11 +2834,18 @@
       <c r="H15" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="87"/>
+      <c r="J15" s="91">
+        <v>1</v>
+      </c>
+      <c r="K15" s="91">
+        <v>101</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
         <v>8</v>
       </c>
@@ -2543,11 +2860,15 @@
         <v>55</v>
       </c>
       <c r="H16" s="79"/>
-      <c r="I16" s="32">
+      <c r="I16" s="87"/>
+      <c r="J16" s="91">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>4</v>
       </c>
@@ -2566,11 +2887,15 @@
         <v>51</v>
       </c>
       <c r="H17" s="79"/>
-      <c r="I17" s="32">
+      <c r="I17" s="87"/>
+      <c r="J17" s="91">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="32">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>41</v>
       </c>
@@ -2589,11 +2914,15 @@
         <v>41</v>
       </c>
       <c r="H18" s="79"/>
-      <c r="I18" s="32">
+      <c r="I18" s="87"/>
+      <c r="J18" s="91">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="32">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>5</v>
       </c>
@@ -2612,11 +2941,15 @@
         <v>52</v>
       </c>
       <c r="H19" s="79"/>
-      <c r="I19" s="32">
+      <c r="I19" s="87"/>
+      <c r="J19" s="91">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>42</v>
       </c>
@@ -2635,11 +2968,15 @@
         <v>53</v>
       </c>
       <c r="H20" s="79"/>
-      <c r="I20" s="32">
+      <c r="I20" s="87"/>
+      <c r="J20" s="91">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
         <v>43</v>
       </c>
@@ -2650,14 +2987,18 @@
         <v>33</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="79"/>
-      <c r="I21" s="32">
+      <c r="I21" s="87"/>
+      <c r="J21" s="91">
         <v>260</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="32">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
         <v>9</v>
       </c>
@@ -2668,16 +3009,20 @@
         <v>33</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="79"/>
-      <c r="I22" s="32">
+      <c r="I22" s="87"/>
+      <c r="J22" s="91">
         <v>260</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="32">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="77">
         <v>43556</v>
@@ -2690,16 +3035,20 @@
         <v>34</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" s="79"/>
-      <c r="I23" s="32">
+      <c r="I23" s="87"/>
+      <c r="J23" s="91">
         <v>963</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="32">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="77">
         <v>43556</v>
@@ -2713,16 +3062,23 @@
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="79"/>
-      <c r="I24" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="87"/>
+      <c r="J24" s="91">
+        <v>962</v>
+      </c>
+      <c r="K24" s="91">
+        <v>965</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B25" s="77">
         <v>43586</v>
@@ -2743,10 +3099,11 @@
       <c r="H25" s="79" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B26" s="77">
         <v>43556</v>
@@ -2763,13 +3120,17 @@
         <v>54</v>
       </c>
       <c r="H26" s="79"/>
-      <c r="I26" s="32">
+      <c r="I26" s="87"/>
+      <c r="J26" s="91">
         <v>252</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L26" s="32">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -2782,13 +3143,17 @@
         <v>54</v>
       </c>
       <c r="H27" s="79"/>
-      <c r="I27" s="32">
+      <c r="I27" s="87"/>
+      <c r="J27" s="91">
         <v>252</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L27" s="32">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -2801,13 +3166,17 @@
         <v>54</v>
       </c>
       <c r="H28" s="79"/>
-      <c r="I28" s="32">
+      <c r="I28" s="87"/>
+      <c r="J28" s="91">
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L28" s="32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B29" s="77">
         <v>43556</v>
@@ -2824,17 +3193,21 @@
         <v>54</v>
       </c>
       <c r="H29" s="79"/>
-      <c r="I29" s="32">
+      <c r="I29" s="87"/>
+      <c r="J29" s="91">
         <v>255</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2848,11 +3221,786 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18.28515625" style="91"/>
+    <col min="6" max="6" width="21.7109375" style="91" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="91"/>
+    <col min="8" max="16384" width="18.28515625" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="91">
+        <v>11</v>
+      </c>
+      <c r="D2" s="91">
+        <v>176</v>
+      </c>
+      <c r="F2" s="92">
+        <v>43697</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91">
+        <v>10</v>
+      </c>
+      <c r="D3" s="91">
+        <v>185</v>
+      </c>
+      <c r="F3" s="92">
+        <v>43677</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="91">
+        <v>10</v>
+      </c>
+      <c r="D4" s="91">
+        <v>185</v>
+      </c>
+      <c r="F4" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="91">
+        <v>14</v>
+      </c>
+      <c r="D5" s="91">
+        <v>150</v>
+      </c>
+      <c r="F5" s="92">
+        <v>43687</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="91">
+        <v>14</v>
+      </c>
+      <c r="D6" s="91">
+        <v>150</v>
+      </c>
+      <c r="F6" s="92">
+        <v>43687</v>
+      </c>
+      <c r="G6" s="92"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="91">
+        <v>22</v>
+      </c>
+      <c r="D7" s="91">
+        <v>205</v>
+      </c>
+      <c r="F7" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="91">
+        <v>1</v>
+      </c>
+      <c r="D8" s="91">
+        <v>141</v>
+      </c>
+      <c r="F8" s="92">
+        <v>43677</v>
+      </c>
+      <c r="G8" s="92"/>
+      <c r="H8" s="87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="91">
+        <v>701</v>
+      </c>
+      <c r="C9" s="91">
+        <v>263</v>
+      </c>
+      <c r="D9" s="91">
+        <v>123</v>
+      </c>
+      <c r="E9" s="91">
+        <v>146</v>
+      </c>
+      <c r="F9" s="92">
+        <v>43617</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="91">
+        <v>1</v>
+      </c>
+      <c r="C10" s="91">
+        <v>968</v>
+      </c>
+      <c r="D10" s="91">
+        <v>141</v>
+      </c>
+      <c r="E10" s="91">
+        <v>0</v>
+      </c>
+      <c r="F10" s="92">
+        <v>43677</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="91">
+        <v>1</v>
+      </c>
+      <c r="C11" s="91">
+        <v>968</v>
+      </c>
+      <c r="D11" s="91">
+        <v>141</v>
+      </c>
+      <c r="E11" s="91">
+        <v>0</v>
+      </c>
+      <c r="F11" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G11" s="92"/>
+      <c r="H11" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="91">
+        <v>1</v>
+      </c>
+      <c r="C12" s="91">
+        <v>963</v>
+      </c>
+      <c r="D12" s="91">
+        <v>141</v>
+      </c>
+      <c r="E12" s="91">
+        <v>146</v>
+      </c>
+      <c r="F12" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G12" s="92"/>
+      <c r="H12" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="87">
+        <v>2</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87">
+        <v>165</v>
+      </c>
+      <c r="E13" s="87"/>
+      <c r="F13" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="91">
+        <v>2</v>
+      </c>
+      <c r="C14" s="91">
+        <v>963</v>
+      </c>
+      <c r="D14" s="91">
+        <v>165</v>
+      </c>
+      <c r="E14" s="91">
+        <v>146</v>
+      </c>
+      <c r="F14" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G14" s="92">
+        <v>43723</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="91">
+        <v>1</v>
+      </c>
+      <c r="C15" s="91">
+        <v>101</v>
+      </c>
+      <c r="D15" s="91">
+        <v>141</v>
+      </c>
+      <c r="F15" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G15" s="92"/>
+      <c r="H15" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="91">
+        <v>101</v>
+      </c>
+      <c r="D16" s="91">
+        <v>170</v>
+      </c>
+      <c r="F16" s="92">
+        <v>43678</v>
+      </c>
+      <c r="G16" s="92"/>
+      <c r="H16" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="91">
+        <v>151</v>
+      </c>
+      <c r="D17" s="91">
+        <v>220</v>
+      </c>
+      <c r="F17" s="92">
+        <v>43661</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="91">
+        <v>216</v>
+      </c>
+      <c r="D18" s="91">
+        <v>171</v>
+      </c>
+      <c r="F18" s="92">
+        <v>43733</v>
+      </c>
+      <c r="G18" s="92"/>
+      <c r="H18" s="87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="91">
+        <v>160</v>
+      </c>
+      <c r="D19" s="91">
+        <v>134</v>
+      </c>
+      <c r="F19" s="92">
+        <v>43733</v>
+      </c>
+      <c r="G19" s="92"/>
+      <c r="H19" s="87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="91">
+        <v>30</v>
+      </c>
+      <c r="D20" s="91">
+        <v>0</v>
+      </c>
+      <c r="F20" s="92">
+        <v>43713</v>
+      </c>
+      <c r="G20" s="92"/>
+      <c r="H20" s="87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="91">
+        <v>260</v>
+      </c>
+      <c r="D21" s="91">
+        <v>284</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="91">
+        <v>260</v>
+      </c>
+      <c r="D22" s="91">
+        <v>284</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="91">
+        <v>963</v>
+      </c>
+      <c r="D23" s="91">
+        <v>146</v>
+      </c>
+      <c r="F23" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="91">
+        <v>962</v>
+      </c>
+      <c r="C24" s="91">
+        <v>965</v>
+      </c>
+      <c r="E24" s="91">
+        <v>38</v>
+      </c>
+      <c r="F24" s="92">
+        <v>43758</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="92">
+        <v>43733</v>
+      </c>
+      <c r="G25" s="94"/>
+      <c r="H25" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="91">
+        <v>252</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="94"/>
+      <c r="H26" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="91">
+        <v>252</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="91">
+        <v>255</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="94"/>
+      <c r="H28" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="91">
+        <v>255</v>
+      </c>
+      <c r="F29" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="94"/>
+      <c r="H29" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="95"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>171</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>B2-C7</f>
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>B3-C2</f>
+        <v>171</v>
+      </c>
+      <c r="E3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="97">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>B4-C3</f>
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>284</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <f>B5-C4</f>
+        <v>284</v>
+      </c>
+      <c r="E5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>284</v>
+      </c>
+      <c r="C6" s="97">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <f>B6</f>
+        <v>284</v>
+      </c>
+      <c r="E6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>185</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>B7-C6</f>
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="96">
+        <f>SUM(B2:B7)</f>
+        <v>1218</v>
+      </c>
+      <c r="C8" s="96">
+        <f>SUM(C2:C7)</f>
+        <v>190</v>
+      </c>
+      <c r="D8" s="96">
+        <f>SUM(D2:D7)</f>
+        <v>1123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -2869,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2996,7 +4144,7 @@
         <v>43557</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3011,10 +4159,10 @@
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3031,15 +4179,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="29">
         <v>43768</v>
@@ -3051,15 +4199,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="29">
         <v>43768</v>
@@ -3071,10 +4219,10 @@
         <v>43678</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,7 +4319,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="10">
         <v>260</v>
@@ -3179,7 +4327,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="29">
         <v>43556</v>
@@ -3191,7 +4339,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="10">
         <v>963</v>
@@ -3199,7 +4347,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="29">
         <v>43556</v>
@@ -3211,10 +4359,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3235,7 +4383,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>16</v>
@@ -3255,7 +4403,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>16</v>
@@ -3298,20 +4446,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3327,132 +4476,242 @@
       <c r="E1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="25">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="25">
         <v>85</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="25">
         <v>170</v>
       </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="99">
+        <v>0</v>
+      </c>
+      <c r="K2" s="99">
+        <v>85</v>
+      </c>
+      <c r="L2" s="99">
+        <v>170</v>
+      </c>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="15">
-        <v>85</v>
-      </c>
-      <c r="D3" s="15">
+        <v>83</v>
+      </c>
+      <c r="C3" s="25">
         <v>170</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25">
+        <v>230</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="H3" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="99"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99">
+        <v>170</v>
+      </c>
+      <c r="M3" s="99">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="25">
+        <v>85</v>
+      </c>
+      <c r="D4" s="25">
         <v>170</v>
       </c>
-      <c r="D4" s="15">
+      <c r="E4" s="25">
         <v>230</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99">
+        <v>85</v>
+      </c>
+      <c r="L4" s="99">
+        <v>170</v>
+      </c>
+      <c r="M4" s="99">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="25">
         <v>85</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="25">
         <v>170</v>
       </c>
-      <c r="E5" s="15">
-        <v>203</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="24"/>
+      <c r="H5" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99">
+        <v>85</v>
+      </c>
+      <c r="L5" s="99">
+        <v>170</v>
+      </c>
+      <c r="M5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="25">
+        <v>85</v>
+      </c>
+      <c r="D6" s="25">
+        <v>170</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="H6" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99">
+        <v>85</v>
+      </c>
+      <c r="L6" s="99">
+        <v>170</v>
+      </c>
+      <c r="M6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="15">
-        <v>85</v>
-      </c>
-      <c r="D6" s="15">
-        <v>170</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="15">
-        <v>170</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>85</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="H7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="99">
+        <v>0</v>
+      </c>
+      <c r="K7" s="100">
+        <v>85</v>
+      </c>
+      <c r="L7" s="100"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>85</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="H8" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="99">
+        <v>0</v>
+      </c>
+      <c r="K8" s="99">
+        <v>85</v>
+      </c>
+      <c r="L8" s="100"/>
+      <c r="M8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>170</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="C9" s="25">
         <v>0</v>
@@ -3460,49 +4719,244 @@
       <c r="D9" s="25">
         <v>85</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="24"/>
+      <c r="H9" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="99">
+        <v>0</v>
+      </c>
+      <c r="K9" s="99">
+        <v>85</v>
+      </c>
+      <c r="L9" s="100"/>
+      <c r="M9" s="98"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="25">
+        <v>85</v>
+      </c>
+      <c r="D10" s="25">
+        <v>170</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="H10" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99">
+        <v>85</v>
+      </c>
+      <c r="L10" s="99">
+        <v>170</v>
+      </c>
+      <c r="M10" s="98"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="99">
+        <v>0</v>
+      </c>
+      <c r="D2" s="99">
+        <v>85</v>
+      </c>
+      <c r="E2" s="99">
+        <v>170</v>
+      </c>
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99">
+        <v>170</v>
+      </c>
+      <c r="F3" s="99">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99">
+        <v>85</v>
+      </c>
+      <c r="E4" s="99">
+        <v>170</v>
+      </c>
+      <c r="F4" s="99">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99">
+        <v>85</v>
+      </c>
+      <c r="E5" s="99">
+        <v>170</v>
+      </c>
+      <c r="F5" s="98"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99">
+        <v>85</v>
+      </c>
+      <c r="E6" s="99">
+        <v>170</v>
+      </c>
+      <c r="F6" s="98"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="99">
+        <v>0</v>
+      </c>
+      <c r="D7" s="100">
+        <v>85</v>
+      </c>
+      <c r="E7" s="100"/>
+      <c r="F7" s="98"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="99">
+        <v>0</v>
+      </c>
+      <c r="D8" s="99">
+        <v>85</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="98"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B9" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C9" s="99">
         <v>0</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D9" s="99">
         <v>85</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="E9" s="100"/>
+      <c r="F9" s="98"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="98">
         <v>0</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D10" s="99">
         <v>85</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -3862,7 +5316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -4172,71 +5626,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Scenarios/common/masterinput_v1.xlsx
+++ b/Scenarios/common/masterinput_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -1543,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -2270,24 +2270,360 @@
       <c r="U13" s="60"/>
       <c r="V13" s="60"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>1</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>2</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>3</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>4</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>6</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="70"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="1048575" man="1"/>
   </colBreaks>
@@ -4774,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
